--- a/pred_ohlcv/54_21/2019-10-28 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 WAX ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-1037435.2953</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1027324.893799999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1096288.287999999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1062582.861499999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1272540.726299999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1305480.718099999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1268082.123399999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1601197.924999999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1596703.410599999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1619273.040299999</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1531797.153972789</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1531800.508972789</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1552400.508972789</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1547471.363972789</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1493323.363172789</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1492067.995672789</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1744525.310072789</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1852789.786772789</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1877696.40687279</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1828502.36757279</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1679418.87307279</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1579063.507718249</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1518172.933139049</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1621640.582939049</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1620045.307839049</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1643406.88933905</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1695922.71063905</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1730114.15313905</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1518866.840035749</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1324888.47413575</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1381853.27793575</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 WAX ohlcv.xlsx
@@ -3720,7 +3720,7 @@
         <v>-1552400.508972789</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1547471.363972789</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1493323.363172789</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1492067.995672789</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1744525.310072789</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1852789.786772789</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1877696.40687279</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1679418.87307279</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1579063.507718249</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1518172.933139049</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1621640.582939049</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1620045.307839049</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1643406.88933905</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1695922.71063905</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1730114.15313905</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1729586.477839049</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1649506.852039049</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1662174.00983905</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1190480.13483905</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1190480.13483905</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1271156.716039049</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1347423.124739049</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1518866.840035749</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1368411.85223575</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1453453.47943575</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1453453.47943575</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1453443.47943575</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1486330.10713575</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1487030.94073575</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1495940.20323575</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1488937.18323575</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1483208.99573575</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1484462.760735749</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1483462.760735749</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1483462.760735749</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1483562.760735749</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1483562.760735749</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1489902.997735749</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1489902.997735749</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1489892.997735749</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1512139.037835749</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1512129.037835749</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1512129.037835749</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1515415.037835749</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1439000.381935749</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1324888.47413575</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1381853.27793575</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
